--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_270__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_270__Reeval_Sobol_Modell_1.3.xlsx
@@ -6118,7 +6118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>79.94466400146484</c:v>
+                  <c:v>79.94465637207031</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>69.31810760498047</c:v>
@@ -6136,7 +6136,7 @@
                   <c:v>67.18579864501953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.29116058349609</c:v>
+                  <c:v>49.29116439819336</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>90.13153839111328</c:v>
@@ -6157,7 +6157,7 @@
                   <c:v>89.67183685302734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.92779159545898</c:v>
+                  <c:v>27.92778968811035</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>94.08671569824219</c:v>
@@ -6187,13 +6187,13 @@
                   <c:v>52.9440803527832</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42.78757095336914</c:v>
+                  <c:v>42.78756713867188</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>80.17952728271484</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63.38836669921875</c:v>
+                  <c:v>63.38836288452148</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>83.95119476318359</c:v>
@@ -6217,13 +6217,13 @@
                   <c:v>80.84709930419922</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>85.60753631591797</c:v>
+                  <c:v>85.6075439453125</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>77.43132019042969</c:v>
+                  <c:v>77.43131256103516</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>67.67355346679688</c:v>
+                  <c:v>67.67354583740234</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>76.67256164550781</c:v>
@@ -6235,7 +6235,7 @@
                   <c:v>75.58981323242188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>50.84189605712891</c:v>
+                  <c:v>50.84189224243164</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>76.55673217773438</c:v>
@@ -6250,7 +6250,7 @@
                   <c:v>59.31392288208008</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>79.07196044921875</c:v>
+                  <c:v>79.07195281982422</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>83.90824890136719</c:v>
@@ -6259,7 +6259,7 @@
                   <c:v>96.27550506591797</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43.6984977722168</c:v>
+                  <c:v>43.69850158691406</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>75.72473907470703</c:v>
@@ -6286,7 +6286,7 @@
                   <c:v>72.11151885986328</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>49.81075286865234</c:v>
+                  <c:v>49.81074905395508</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>83.85523986816406</c:v>
@@ -6310,16 +6310,16 @@
                   <c:v>77.12049865722656</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>36.33511734008789</c:v>
+                  <c:v>36.33512115478516</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>80.34295654296875</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>88.33405303955078</c:v>
+                  <c:v>88.33406066894531</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>85.17669677734375</c:v>
+                  <c:v>85.17668914794922</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>77.98642730712891</c:v>
@@ -6334,7 +6334,7 @@
                   <c:v>78.54867553710938</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30.34370422363281</c:v>
+                  <c:v>30.34370040893555</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>83.63372802734375</c:v>
@@ -6343,22 +6343,22 @@
                   <c:v>73.85291290283203</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>86.26198577880859</c:v>
+                  <c:v>86.26197814941406</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>34.05129623413086</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49.47175979614258</c:v>
+                  <c:v>49.47175598144531</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>46.17597198486328</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>54.1216926574707</c:v>
+                  <c:v>54.12168884277344</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>70.68362426757812</c:v>
+                  <c:v>70.68361663818359</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>71.42969512939453</c:v>
@@ -6370,7 +6370,7 @@
                   <c:v>68.12781524658203</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>23.72631454467773</c:v>
+                  <c:v>23.72632217407227</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>32.00975799560547</c:v>
@@ -6400,7 +6400,7 @@
                   <c:v>48.95955657958984</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>72.59146118164062</c:v>
+                  <c:v>72.59145355224609</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>73.36623382568359</c:v>
@@ -6409,13 +6409,13 @@
                   <c:v>80.85718536376953</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>33.89460372924805</c:v>
+                  <c:v>33.89461517333984</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>79.66009521484375</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>76.01886749267578</c:v>
+                  <c:v>76.01887512207031</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>81.26294708251953</c:v>
@@ -7119,7 +7119,7 @@
         <v>83.8301</v>
       </c>
       <c r="F2">
-        <v>79.94466400146484</v>
+        <v>79.94465637207031</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7311,7 +7311,7 @@
         <v>49.0368</v>
       </c>
       <c r="F8">
-        <v>49.29116058349609</v>
+        <v>49.29116439819336</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>27.92779159545898</v>
+        <v>27.92778968811035</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>42.78757095336914</v>
+        <v>42.78756713867188</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>63.4677</v>
       </c>
       <c r="F27">
-        <v>63.38836669921875</v>
+        <v>63.38836288452148</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>83.20180000000001</v>
       </c>
       <c r="F35">
-        <v>85.60753631591797</v>
+        <v>85.6075439453125</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>73.6311</v>
       </c>
       <c r="F36">
-        <v>77.43132019042969</v>
+        <v>77.43131256103516</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>69.36790000000001</v>
       </c>
       <c r="F37">
-        <v>67.67355346679688</v>
+        <v>67.67354583740234</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>50.84189605712891</v>
+        <v>50.84189224243164</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>72.2573</v>
       </c>
       <c r="F46">
-        <v>79.07196044921875</v>
+        <v>79.07195281982422</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>43.6984977722168</v>
+        <v>43.69850158691406</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>49.81075286865234</v>
+        <v>49.81074905395508</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>38.8903</v>
       </c>
       <c r="F66">
-        <v>36.33511734008789</v>
+        <v>36.33512115478516</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>89.6302</v>
       </c>
       <c r="F68">
-        <v>88.33405303955078</v>
+        <v>88.33406066894531</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>91.7517</v>
       </c>
       <c r="F69">
-        <v>85.17669677734375</v>
+        <v>85.17668914794922</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>25.8506</v>
       </c>
       <c r="F74">
-        <v>30.34370422363281</v>
+        <v>30.34370040893555</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>93.0134</v>
       </c>
       <c r="F77">
-        <v>86.26198577880859</v>
+        <v>86.26197814941406</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>49.47175979614258</v>
+        <v>49.47175598144531</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>55.7459</v>
       </c>
       <c r="F81">
-        <v>54.1216926574707</v>
+        <v>54.12168884277344</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>58.0646</v>
       </c>
       <c r="F82">
-        <v>70.68362426757812</v>
+        <v>70.68361663818359</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>22.8756</v>
       </c>
       <c r="F86">
-        <v>23.72631454467773</v>
+        <v>23.72632217407227</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>72.59146118164062</v>
+        <v>72.59145355224609</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>33.89460372924805</v>
+        <v>33.89461517333984</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>84.7376</v>
       </c>
       <c r="F101">
-        <v>76.01886749267578</v>
+        <v>76.01887512207031</v>
       </c>
     </row>
     <row r="102" spans="1:6">
